--- a/results/results_all.xlsx
+++ b/results/results_all.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="21">
   <si>
     <t>row</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>stddiv</t>
+  </si>
+  <si>
+    <t>q 25</t>
+  </si>
+  <si>
+    <t>q 75</t>
   </si>
 </sst>
 </file>
@@ -710,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M44"/>
+  <dimension ref="A2:R44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37:M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -721,7 +727,7 @@
     <col min="3" max="3" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -744,8 +750,20 @@
       <c r="M2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -778,8 +796,20 @@
       <c r="M3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>0</v>
       </c>
@@ -808,21 +838,35 @@
         <v>97.154471544715449</v>
       </c>
       <c r="J4" s="11">
+        <v>159</v>
+      </c>
+      <c r="K4" s="11">
+        <v>105</v>
+      </c>
+      <c r="L4" s="12">
+        <f>J4/246*100</f>
+        <v>64.634146341463421</v>
+      </c>
+      <c r="M4" s="12">
+        <f>K4/246*100</f>
+        <v>42.68292682926829</v>
+      </c>
+      <c r="O4" s="11">
         <v>118</v>
       </c>
-      <c r="K4" s="11">
+      <c r="P4" s="11">
         <v>70</v>
       </c>
-      <c r="L4" s="12">
-        <f>J4/243*100</f>
+      <c r="Q4" s="12">
+        <f>O4/243*100</f>
         <v>48.559670781893004</v>
       </c>
-      <c r="M4" s="12">
-        <f>K4/243*100</f>
+      <c r="R4" s="12">
+        <f>P4/243*100</f>
         <v>28.806584362139919</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="7">
         <v>3</v>
@@ -849,21 +893,35 @@
         <v>98.780487804878049</v>
       </c>
       <c r="J5" s="11">
+        <v>198</v>
+      </c>
+      <c r="K5" s="11">
+        <v>196</v>
+      </c>
+      <c r="L5" s="12">
+        <f>J5/246*100</f>
+        <v>80.487804878048792</v>
+      </c>
+      <c r="M5" s="12">
+        <f>K5/246*100</f>
+        <v>79.674796747967477</v>
+      </c>
+      <c r="O5" s="11">
         <v>146</v>
       </c>
-      <c r="K5" s="11">
+      <c r="P5" s="11">
         <v>144</v>
       </c>
-      <c r="L5" s="12">
-        <f>J5/243*100</f>
+      <c r="Q5" s="12">
+        <f>O5/243*100</f>
         <v>60.082304526748977</v>
       </c>
-      <c r="M5" s="12">
-        <f>K5/243*100</f>
+      <c r="R5" s="12">
+        <f>P5/243*100</f>
         <v>59.259259259259252</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -891,12 +949,26 @@
         <f t="shared" si="3"/>
         <v>84.959349593495944</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="11">
+        <v>138</v>
+      </c>
+      <c r="K6" s="11">
+        <v>86</v>
+      </c>
+      <c r="L6" s="12">
+        <f t="shared" ref="L6:M7" si="4">J6/246*100</f>
+        <v>56.09756097560976</v>
+      </c>
+      <c r="M6" s="12">
+        <f t="shared" si="4"/>
+        <v>34.959349593495936</v>
+      </c>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+    </row>
+    <row r="7" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="7">
         <v>3</v>
@@ -922,12 +994,26 @@
         <f t="shared" si="3"/>
         <v>98.780487804878049</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="11">
+        <v>165</v>
+      </c>
+      <c r="K7" s="11">
+        <v>163</v>
+      </c>
+      <c r="L7" s="12">
+        <f t="shared" si="4"/>
+        <v>67.073170731707322</v>
+      </c>
+      <c r="M7" s="12">
+        <f t="shared" si="4"/>
+        <v>66.260162601626021</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+    </row>
+    <row r="8" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>10</v>
       </c>
@@ -955,12 +1041,26 @@
         <f t="shared" si="3"/>
         <v>85.365853658536579</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="11">
+        <v>131</v>
+      </c>
+      <c r="K8" s="11">
+        <v>84</v>
+      </c>
+      <c r="L8" s="12">
+        <f t="shared" ref="L8:L9" si="5">J8/246*100</f>
+        <v>53.252032520325201</v>
+      </c>
+      <c r="M8" s="12">
+        <f t="shared" ref="M8:M9" si="6">K8/246*100</f>
+        <v>34.146341463414636</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+    </row>
+    <row r="9" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="7">
         <v>3</v>
@@ -986,12 +1086,26 @@
         <f t="shared" si="3"/>
         <v>97.154471544715449</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="11">
+        <v>162</v>
+      </c>
+      <c r="K9" s="11">
+        <v>157</v>
+      </c>
+      <c r="L9" s="12">
+        <f t="shared" si="5"/>
+        <v>65.853658536585371</v>
+      </c>
+      <c r="M9" s="12">
+        <f t="shared" si="6"/>
+        <v>63.821138211382113</v>
+      </c>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+    </row>
+    <row r="10" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>15</v>
       </c>
@@ -1019,12 +1133,26 @@
         <f t="shared" si="3"/>
         <v>85.77235772357723</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="11">
+        <v>124</v>
+      </c>
+      <c r="K10" s="11">
+        <v>73</v>
+      </c>
+      <c r="L10" s="12">
+        <f t="shared" ref="L10:L11" si="7">J10/246*100</f>
+        <v>50.40650406504065</v>
+      </c>
+      <c r="M10" s="12">
+        <f t="shared" ref="M10:M11" si="8">K10/246*100</f>
+        <v>29.674796747967481</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+    </row>
+    <row r="11" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="7">
         <v>3</v>
@@ -1050,12 +1178,26 @@
         <f t="shared" si="3"/>
         <v>97.560975609756099</v>
       </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J11" s="11">
+        <v>155</v>
+      </c>
+      <c r="K11" s="11">
+        <v>153</v>
+      </c>
+      <c r="L11" s="12">
+        <f t="shared" si="7"/>
+        <v>63.00813008130082</v>
+      </c>
+      <c r="M11" s="12">
+        <f t="shared" si="8"/>
+        <v>62.195121951219512</v>
+      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>4</v>
       </c>
@@ -1078,8 +1220,20 @@
       <c r="M13" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
@@ -1112,8 +1266,20 @@
       <c r="M14" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>0</v>
       </c>
@@ -1134,29 +1300,43 @@
         <v>76.829268292682926</v>
       </c>
       <c r="G15" s="10">
-        <f t="shared" ref="G15:H22" si="4">D15/246*100</f>
+        <f t="shared" ref="G15:H22" si="9">D15/246*100</f>
         <v>29.674796747967481</v>
       </c>
       <c r="H15" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>95.934959349593498</v>
       </c>
       <c r="J15" s="11">
+        <v>151</v>
+      </c>
+      <c r="K15" s="11">
+        <v>98</v>
+      </c>
+      <c r="L15" s="12">
+        <f>J15*100/246</f>
+        <v>61.382113821138212</v>
+      </c>
+      <c r="M15" s="12">
+        <f>K15*100/246</f>
+        <v>39.837398373983739</v>
+      </c>
+      <c r="O15" s="11">
         <v>110</v>
       </c>
-      <c r="K15" s="11">
+      <c r="P15" s="11">
         <v>70</v>
       </c>
-      <c r="L15" s="12">
-        <f>J15/243*100</f>
+      <c r="Q15" s="12">
+        <f>O15/243*100</f>
         <v>45.267489711934154</v>
       </c>
-      <c r="M15" s="12">
-        <f>K15/243*100</f>
+      <c r="R15" s="12">
+        <f>P15/243*100</f>
         <v>28.806584362139919</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="7">
         <v>3</v>
@@ -1171,33 +1351,47 @@
         <v>240</v>
       </c>
       <c r="F16" s="10">
-        <f t="shared" ref="F16:F22" si="5">C16/246*100</f>
+        <f t="shared" ref="F16:F22" si="10">C16/246*100</f>
         <v>97.560975609756099</v>
       </c>
       <c r="G16" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>52.032520325203258</v>
       </c>
       <c r="H16" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>97.560975609756099</v>
       </c>
       <c r="J16" s="11">
+        <v>201</v>
+      </c>
+      <c r="K16" s="11">
+        <v>194</v>
+      </c>
+      <c r="L16" s="12">
+        <f t="shared" ref="L16:L22" si="11">J16*100/246</f>
+        <v>81.707317073170728</v>
+      </c>
+      <c r="M16" s="12">
+        <f t="shared" ref="M16:M22" si="12">K16*100/246</f>
+        <v>78.861788617886177</v>
+      </c>
+      <c r="O16" s="11">
         <v>144</v>
       </c>
-      <c r="K16" s="11">
+      <c r="P16" s="11">
         <v>143</v>
       </c>
-      <c r="L16" s="12">
-        <f>J16/243*100</f>
+      <c r="Q16" s="12">
+        <f>O16/243*100</f>
         <v>59.259259259259252</v>
       </c>
-      <c r="M16" s="12">
-        <f>K16/243*100</f>
+      <c r="R16" s="12">
+        <f>P16/243*100</f>
         <v>58.847736625514401</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>5</v>
       </c>
@@ -1214,23 +1408,37 @@
         <v>210</v>
       </c>
       <c r="F17" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>83.739837398373979</v>
       </c>
       <c r="G17" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>25.609756097560975</v>
       </c>
       <c r="H17" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>85.365853658536579</v>
       </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-    </row>
-    <row r="18" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="11">
+        <v>124</v>
+      </c>
+      <c r="K17" s="11">
+        <v>83</v>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" si="11"/>
+        <v>50.40650406504065</v>
+      </c>
+      <c r="M17" s="12">
+        <f t="shared" si="12"/>
+        <v>33.739837398373986</v>
+      </c>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+    </row>
+    <row r="18" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="7">
         <v>3</v>
@@ -1245,23 +1453,37 @@
         <v>238</v>
       </c>
       <c r="F18" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>96.747967479674799</v>
       </c>
       <c r="G18" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>42.276422764227647</v>
       </c>
       <c r="H18" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>96.747967479674799</v>
       </c>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-    </row>
-    <row r="19" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="11">
+        <v>166</v>
+      </c>
+      <c r="K18" s="11">
+        <v>168</v>
+      </c>
+      <c r="L18" s="12">
+        <f t="shared" si="11"/>
+        <v>67.479674796747972</v>
+      </c>
+      <c r="M18" s="12">
+        <f t="shared" si="12"/>
+        <v>68.292682926829272</v>
+      </c>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+    </row>
+    <row r="19" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>10</v>
       </c>
@@ -1278,23 +1500,37 @@
         <v>205</v>
       </c>
       <c r="F19" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>78.861788617886177</v>
       </c>
       <c r="G19" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>23.577235772357724</v>
       </c>
       <c r="H19" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>83.333333333333343</v>
       </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-    </row>
-    <row r="20" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="11">
+        <v>124</v>
+      </c>
+      <c r="K19" s="11">
+        <v>163</v>
+      </c>
+      <c r="L19" s="12">
+        <f t="shared" si="11"/>
+        <v>50.40650406504065</v>
+      </c>
+      <c r="M19" s="12">
+        <f t="shared" si="12"/>
+        <v>66.260162601626021</v>
+      </c>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+    </row>
+    <row r="20" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="7">
         <v>3</v>
@@ -1309,23 +1545,37 @@
         <v>239</v>
       </c>
       <c r="F20" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>97.154471544715449</v>
       </c>
       <c r="G20" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>40.243902439024396</v>
       </c>
       <c r="H20" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>97.154471544715449</v>
       </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-    </row>
-    <row r="21" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="11">
+        <v>79</v>
+      </c>
+      <c r="K20" s="11">
+        <v>163</v>
+      </c>
+      <c r="L20" s="12">
+        <f t="shared" si="11"/>
+        <v>32.113821138211385</v>
+      </c>
+      <c r="M20" s="12">
+        <f t="shared" si="12"/>
+        <v>66.260162601626021</v>
+      </c>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+    </row>
+    <row r="21" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>15</v>
       </c>
@@ -1342,23 +1592,37 @@
         <v>199</v>
       </c>
       <c r="F21" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>75.609756097560975</v>
       </c>
       <c r="G21" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>21.544715447154474</v>
       </c>
       <c r="H21" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>80.894308943089428</v>
       </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-    </row>
-    <row r="22" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="11">
+        <v>119</v>
+      </c>
+      <c r="K21" s="11">
+        <v>154</v>
+      </c>
+      <c r="L21" s="12">
+        <f t="shared" si="11"/>
+        <v>48.373983739837399</v>
+      </c>
+      <c r="M21" s="12">
+        <f t="shared" si="12"/>
+        <v>62.601626016260163</v>
+      </c>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+    </row>
+    <row r="22" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="7">
         <v>3</v>
@@ -1373,23 +1637,37 @@
         <v>240</v>
       </c>
       <c r="F22" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>97.154471544715449</v>
       </c>
       <c r="G22" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>39.024390243902438</v>
       </c>
       <c r="H22" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>97.560975609756099</v>
       </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J22" s="11">
+        <v>77</v>
+      </c>
+      <c r="K22" s="11">
+        <v>152</v>
+      </c>
+      <c r="L22" s="12">
+        <f t="shared" si="11"/>
+        <v>31.300813008130081</v>
+      </c>
+      <c r="M22" s="12">
+        <f t="shared" si="12"/>
+        <v>61.788617886178862</v>
+      </c>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>5</v>
       </c>
@@ -1412,8 +1690,20 @@
       <c r="M24" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
@@ -1446,8 +1736,20 @@
       <c r="M25" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>0</v>
       </c>
@@ -1468,29 +1770,43 @@
         <v>77.642276422764226</v>
       </c>
       <c r="G26" s="10">
-        <f t="shared" ref="G26:H26" si="6">D26/246*100</f>
+        <f t="shared" ref="G26:H26" si="13">D26/246*100</f>
         <v>29.674796747967481</v>
       </c>
       <c r="H26" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>97.560975609756099</v>
       </c>
       <c r="J26" s="11">
+        <v>133</v>
+      </c>
+      <c r="K26" s="11">
+        <v>98</v>
+      </c>
+      <c r="L26" s="12">
+        <f>J26*100/246</f>
+        <v>54.065040650406502</v>
+      </c>
+      <c r="M26" s="12">
+        <f>K26*100/246</f>
+        <v>39.837398373983739</v>
+      </c>
+      <c r="O26" s="11">
         <v>100</v>
       </c>
-      <c r="K26" s="11">
+      <c r="P26" s="11">
         <v>67</v>
       </c>
-      <c r="L26" s="12">
-        <f>J26/243*100</f>
+      <c r="Q26" s="12">
+        <f>O26/243*100</f>
         <v>41.152263374485599</v>
       </c>
-      <c r="M26" s="12">
-        <f>K26/243*100</f>
+      <c r="R26" s="12">
+        <f>P26/243*100</f>
         <v>27.572016460905353</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="7">
         <v>3</v>
@@ -1505,33 +1821,47 @@
         <v>244</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" ref="F27:F33" si="7">C27/246*100</f>
+        <f t="shared" ref="F27:F33" si="14">C27/246*100</f>
         <v>99.1869918699187</v>
       </c>
       <c r="G27" s="10">
-        <f t="shared" ref="G27:G33" si="8">D27/246*100</f>
+        <f t="shared" ref="G27:G33" si="15">D27/246*100</f>
         <v>51.219512195121951</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" ref="H27:H33" si="9">E27/246*100</f>
+        <f t="shared" ref="H27:H33" si="16">E27/246*100</f>
         <v>99.1869918699187</v>
       </c>
       <c r="J27" s="11">
+        <v>183</v>
+      </c>
+      <c r="K27" s="11">
+        <v>184</v>
+      </c>
+      <c r="L27" s="12">
+        <f t="shared" ref="L27:L33" si="17">J27*100/246</f>
+        <v>74.390243902439025</v>
+      </c>
+      <c r="M27" s="12">
+        <f t="shared" ref="M27:M33" si="18">K27*100/246</f>
+        <v>74.796747967479675</v>
+      </c>
+      <c r="O27" s="11">
         <v>132</v>
       </c>
-      <c r="K27" s="11">
+      <c r="P27" s="11">
         <v>127</v>
       </c>
-      <c r="L27" s="12">
-        <f>J27/243*100</f>
+      <c r="Q27" s="12">
+        <f>O27/243*100</f>
         <v>54.320987654320987</v>
       </c>
-      <c r="M27" s="12">
-        <f>K27/243*100</f>
+      <c r="R27" s="12">
+        <f>P27/243*100</f>
         <v>52.2633744855967</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>5</v>
       </c>
@@ -1548,23 +1878,37 @@
         <v>217</v>
       </c>
       <c r="F28" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>81.707317073170728</v>
       </c>
       <c r="G28" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.422764227642276</v>
       </c>
       <c r="H28" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>88.211382113821131</v>
       </c>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-    </row>
-    <row r="29" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="11">
+        <v>115</v>
+      </c>
+      <c r="K28" s="11">
+        <v>83</v>
+      </c>
+      <c r="L28" s="12">
+        <f t="shared" si="17"/>
+        <v>46.747967479674799</v>
+      </c>
+      <c r="M28" s="12">
+        <f t="shared" si="18"/>
+        <v>33.739837398373986</v>
+      </c>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+    </row>
+    <row r="29" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="7">
         <v>3</v>
@@ -1579,23 +1923,37 @@
         <v>243</v>
       </c>
       <c r="F29" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>99.1869918699187</v>
       </c>
       <c r="G29" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>45.121951219512198</v>
       </c>
       <c r="H29" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>98.780487804878049</v>
       </c>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-    </row>
-    <row r="30" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="11">
+        <v>155</v>
+      </c>
+      <c r="K29" s="11">
+        <v>156</v>
+      </c>
+      <c r="L29" s="12">
+        <f t="shared" si="17"/>
+        <v>63.008130081300813</v>
+      </c>
+      <c r="M29" s="12">
+        <f t="shared" si="18"/>
+        <v>63.414634146341463</v>
+      </c>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+    </row>
+    <row r="30" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>10</v>
       </c>
@@ -1612,23 +1970,37 @@
         <v>208</v>
       </c>
       <c r="F30" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>79.674796747967477</v>
       </c>
       <c r="G30" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>23.577235772357724</v>
       </c>
       <c r="H30" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>84.552845528455293</v>
       </c>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-    </row>
-    <row r="31" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J30" s="11">
+        <v>109</v>
+      </c>
+      <c r="K30" s="11">
+        <v>79</v>
+      </c>
+      <c r="L30" s="12">
+        <f t="shared" si="17"/>
+        <v>44.308943089430898</v>
+      </c>
+      <c r="M30" s="12">
+        <f t="shared" si="18"/>
+        <v>32.113821138211385</v>
+      </c>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+    </row>
+    <row r="31" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="7">
         <v>3</v>
@@ -1643,23 +2015,37 @@
         <v>242</v>
       </c>
       <c r="F31" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>98.373983739837399</v>
       </c>
       <c r="G31" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>44.308943089430898</v>
       </c>
       <c r="H31" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>98.373983739837399</v>
       </c>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-    </row>
-    <row r="32" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="11">
+        <v>152</v>
+      </c>
+      <c r="K31" s="11">
+        <v>152</v>
+      </c>
+      <c r="L31" s="12">
+        <f t="shared" si="17"/>
+        <v>61.788617886178862</v>
+      </c>
+      <c r="M31" s="12">
+        <f t="shared" si="18"/>
+        <v>61.788617886178862</v>
+      </c>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+    </row>
+    <row r="32" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>15</v>
       </c>
@@ -1676,23 +2062,37 @@
         <v>207</v>
       </c>
       <c r="F32" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>80.894308943089428</v>
       </c>
       <c r="G32" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>23.577235772357724</v>
       </c>
       <c r="H32" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>84.146341463414629</v>
       </c>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-    </row>
-    <row r="33" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J32" s="11">
+        <v>103</v>
+      </c>
+      <c r="K32" s="11">
+        <v>72</v>
+      </c>
+      <c r="L32" s="12">
+        <f t="shared" si="17"/>
+        <v>41.869918699186989</v>
+      </c>
+      <c r="M32" s="12">
+        <f t="shared" si="18"/>
+        <v>29.26829268292683</v>
+      </c>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+    </row>
+    <row r="33" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="7">
         <v>3</v>
@@ -1707,23 +2107,37 @@
         <v>240</v>
       </c>
       <c r="F33" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>97.967479674796749</v>
       </c>
       <c r="G33" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>43.089430894308947</v>
       </c>
       <c r="H33" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>97.560975609756099</v>
       </c>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J33" s="11">
+        <v>157</v>
+      </c>
+      <c r="K33" s="11">
+        <v>151</v>
+      </c>
+      <c r="L33" s="12">
+        <f t="shared" si="17"/>
+        <v>63.821138211382113</v>
+      </c>
+      <c r="M33" s="12">
+        <f t="shared" si="18"/>
+        <v>61.382113821138212</v>
+      </c>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>6</v>
       </c>
@@ -1746,8 +2160,20 @@
       <c r="M35" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
@@ -1780,8 +2206,20 @@
       <c r="M36" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>0</v>
       </c>
@@ -1802,29 +2240,43 @@
         <v>77.642276422764226</v>
       </c>
       <c r="G37" s="10">
-        <f t="shared" ref="G37:H44" si="10">D37/246*100</f>
+        <f t="shared" ref="G37:H44" si="19">D37/246*100</f>
         <v>21.951219512195124</v>
       </c>
       <c r="H37" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>93.902439024390233</v>
       </c>
       <c r="J37" s="11">
+        <v>90</v>
+      </c>
+      <c r="K37" s="11">
+        <v>79</v>
+      </c>
+      <c r="L37" s="12">
+        <f>J37*100/246</f>
+        <v>36.585365853658537</v>
+      </c>
+      <c r="M37" s="12">
+        <f>K37*100/246</f>
+        <v>32.113821138211385</v>
+      </c>
+      <c r="O37" s="11">
         <v>76</v>
       </c>
-      <c r="K37" s="11">
+      <c r="P37" s="11">
         <v>61</v>
       </c>
-      <c r="L37" s="12">
-        <f>J37/243*100</f>
+      <c r="Q37" s="12">
+        <f>O37/243*100</f>
         <v>31.275720164609055</v>
       </c>
-      <c r="M37" s="12">
-        <f>K37/243*100</f>
+      <c r="R37" s="12">
+        <f>P37/243*100</f>
         <v>25.102880658436217</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="7">
         <v>3</v>
@@ -1839,33 +2291,47 @@
         <v>237</v>
       </c>
       <c r="F38" s="10">
-        <f t="shared" ref="F38:F44" si="11">C38/246*100</f>
+        <f t="shared" ref="F38:F44" si="20">C38/246*100</f>
         <v>96.341463414634148</v>
       </c>
       <c r="G38" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>41.056910569105689</v>
       </c>
       <c r="H38" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>96.341463414634148</v>
       </c>
       <c r="J38" s="11">
+        <v>151</v>
+      </c>
+      <c r="K38" s="11">
+        <v>151</v>
+      </c>
+      <c r="L38" s="12">
+        <f t="shared" ref="L38:L44" si="21">J38*100/246</f>
+        <v>61.382113821138212</v>
+      </c>
+      <c r="M38" s="12">
+        <f t="shared" ref="M38:M44" si="22">K38*100/246</f>
+        <v>61.382113821138212</v>
+      </c>
+      <c r="O38" s="11">
         <v>123</v>
       </c>
-      <c r="K38" s="11">
+      <c r="P38" s="11">
         <v>125</v>
       </c>
-      <c r="L38" s="12">
-        <f>J38/243*100</f>
+      <c r="Q38" s="12">
+        <f>O38/243*100</f>
         <v>50.617283950617285</v>
       </c>
-      <c r="M38" s="12">
-        <f>K38/243*100</f>
+      <c r="R38" s="12">
+        <f>P38/243*100</f>
         <v>51.440329218106996</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>5</v>
       </c>
@@ -1882,23 +2348,37 @@
         <v>206</v>
       </c>
       <c r="F39" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>80.487804878048792</v>
       </c>
       <c r="G39" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>17.073170731707318</v>
       </c>
       <c r="H39" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>83.739837398373979</v>
       </c>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-    </row>
-    <row r="40" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J39" s="11">
+        <v>91</v>
+      </c>
+      <c r="K39" s="11">
+        <v>71</v>
+      </c>
+      <c r="L39" s="12">
+        <f t="shared" si="21"/>
+        <v>36.991869918699187</v>
+      </c>
+      <c r="M39" s="12">
+        <f t="shared" si="22"/>
+        <v>28.86178861788618</v>
+      </c>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+    </row>
+    <row r="40" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="7">
         <v>3</v>
@@ -1913,23 +2393,37 @@
         <v>237</v>
       </c>
       <c r="F40" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>96.341463414634148</v>
       </c>
       <c r="G40" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>35.772357723577237</v>
       </c>
       <c r="H40" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>96.341463414634148</v>
       </c>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-    </row>
-    <row r="41" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J40" s="11">
+        <v>129</v>
+      </c>
+      <c r="K40" s="11">
+        <v>126</v>
+      </c>
+      <c r="L40" s="12">
+        <f t="shared" si="21"/>
+        <v>52.439024390243901</v>
+      </c>
+      <c r="M40" s="12">
+        <f t="shared" si="22"/>
+        <v>51.219512195121951</v>
+      </c>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+    </row>
+    <row r="41" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>10</v>
       </c>
@@ -1946,23 +2440,37 @@
         <v>198</v>
       </c>
       <c r="F41" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>79.268292682926827</v>
       </c>
       <c r="G41" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>17.886178861788618</v>
       </c>
       <c r="H41" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>80.487804878048792</v>
       </c>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-    </row>
-    <row r="42" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J41" s="11">
+        <v>93</v>
+      </c>
+      <c r="K41" s="11">
+        <v>75</v>
+      </c>
+      <c r="L41" s="12">
+        <f t="shared" si="21"/>
+        <v>37.804878048780488</v>
+      </c>
+      <c r="M41" s="12">
+        <f t="shared" si="22"/>
+        <v>30.487804878048781</v>
+      </c>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+    </row>
+    <row r="42" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="7">
         <v>3</v>
@@ -1977,23 +2485,37 @@
         <v>236</v>
       </c>
       <c r="F42" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>95.934959349593498</v>
       </c>
       <c r="G42" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>34.959349593495936</v>
       </c>
       <c r="H42" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>95.934959349593498</v>
       </c>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-    </row>
-    <row r="43" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J42" s="11">
+        <v>130</v>
+      </c>
+      <c r="K42" s="11">
+        <v>131</v>
+      </c>
+      <c r="L42" s="12">
+        <f t="shared" si="21"/>
+        <v>52.845528455284551</v>
+      </c>
+      <c r="M42" s="12">
+        <f t="shared" si="22"/>
+        <v>53.252032520325201</v>
+      </c>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+    </row>
+    <row r="43" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>15</v>
       </c>
@@ -2010,23 +2532,37 @@
         <v>204</v>
       </c>
       <c r="F43" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>80.487804878048792</v>
       </c>
       <c r="G43" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>18.292682926829269</v>
       </c>
       <c r="H43" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>82.926829268292678</v>
       </c>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-    </row>
-    <row r="44" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J43" s="11">
+        <v>92</v>
+      </c>
+      <c r="K43" s="11">
+        <v>74</v>
+      </c>
+      <c r="L43" s="12">
+        <f t="shared" si="21"/>
+        <v>37.398373983739837</v>
+      </c>
+      <c r="M43" s="12">
+        <f t="shared" si="22"/>
+        <v>30.081300813008131</v>
+      </c>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+    </row>
+    <row r="44" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="7">
         <v>3</v>
@@ -2041,21 +2577,35 @@
         <v>236</v>
       </c>
       <c r="F44" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>95.934959349593498</v>
       </c>
       <c r="G44" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>34.146341463414636</v>
       </c>
       <c r="H44" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>95.934959349593498</v>
       </c>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
+      <c r="J44" s="11">
+        <v>137</v>
+      </c>
+      <c r="K44" s="11">
+        <v>132</v>
+      </c>
+      <c r="L44" s="12">
+        <f t="shared" si="21"/>
+        <v>55.691056910569102</v>
+      </c>
+      <c r="M44" s="12">
+        <f t="shared" si="22"/>
+        <v>53.658536585365852</v>
+      </c>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -30717,207 +31267,221 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E254"/>
+  <dimension ref="A2:E256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="17">
-        <f>MIN(B9:B254)</f>
-        <v>6</v>
-      </c>
-      <c r="C2" s="17">
-        <f t="shared" ref="C2:E2" si="0">MIN(C9:C254)</f>
-        <v>30</v>
-      </c>
-      <c r="D2" s="17">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <f>QUARTILE(B11:B256, 1)</f>
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:E2" si="0">QUARTILE(C11:C256, 1)</f>
+        <v>99</v>
+      </c>
+      <c r="D2">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E2" s="18">
+        <v>201</v>
+      </c>
+      <c r="E2">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>300.75</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="20">
-        <f>MAX(B10:B255)</f>
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <f>QUARTILE(B11:B256, 3)</f>
         <v>300</v>
       </c>
-      <c r="C3" s="20">
-        <f t="shared" ref="C3:E3" si="1">MAX(C10:C255)</f>
+      <c r="C3">
+        <f t="shared" ref="C3:E3" si="1">QUARTILE(C11:C256, 3)</f>
         <v>1500</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3">
         <f t="shared" si="1"/>
         <v>4500</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="17">
+        <f>MIN(B11:B256)</f>
+        <v>6</v>
+      </c>
+      <c r="C4" s="17">
+        <f t="shared" ref="C4:E4" si="2">MIN(C11:C256)</f>
+        <v>30</v>
+      </c>
+      <c r="D4" s="17">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="E4" s="18">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="20">
+        <f>MAX(B12:B257)</f>
+        <v>300</v>
+      </c>
+      <c r="C5" s="20">
+        <f t="shared" ref="C5:E5" si="3">MAX(C12:C257)</f>
+        <v>1500</v>
+      </c>
+      <c r="D5" s="20">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="E5" s="21">
+        <f t="shared" si="3"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="20">
-        <f>MEDIAN(B11:B256)</f>
+      <c r="B6" s="20">
+        <f>MEDIAN(B13:B258)</f>
         <v>79.5</v>
       </c>
-      <c r="C4" s="20">
-        <f>MEDIAN(C11:C256)</f>
+      <c r="C6" s="20">
+        <f>MEDIAN(C13:C258)</f>
         <v>390</v>
       </c>
-      <c r="D4" s="20">
-        <f t="shared" ref="C4:E4" si="2">MEDIAN(D11:D256)</f>
+      <c r="D6" s="20">
+        <f t="shared" ref="D6:E6" si="4">MEDIAN(D13:D258)</f>
         <v>808.5</v>
       </c>
-      <c r="E4" s="21">
-        <f t="shared" si="2"/>
+      <c r="E6" s="21">
+        <f t="shared" si="4"/>
         <v>1255.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23">
-        <f>AVERAGE(B12:B257)</f>
+      <c r="B7" s="23">
+        <f>AVERAGE(B14:B259)</f>
         <v>137.69135802469137</v>
       </c>
-      <c r="C5" s="23">
-        <f t="shared" ref="C5:E5" si="3">AVERAGE(C12:C257)</f>
+      <c r="C7" s="23">
+        <f t="shared" ref="C7:E7" si="5">AVERAGE(C14:C259)</f>
         <v>682.75308641975312</v>
       </c>
-      <c r="D5" s="23">
-        <f t="shared" si="3"/>
+      <c r="D7" s="23">
+        <f t="shared" si="5"/>
         <v>1366.5802469135801</v>
       </c>
-      <c r="E5" s="24">
-        <f t="shared" si="3"/>
+      <c r="E7" s="24">
+        <f t="shared" si="5"/>
         <v>2069.1604938271603</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="25">
-        <f>STDEV(B12:B257)</f>
+      <c r="B8" s="25">
+        <f>STDEV(B14:B259)</f>
         <v>127.76078259636543</v>
       </c>
-      <c r="C6" s="25">
-        <f t="shared" ref="C6:E6" si="4">STDEV(C12:C257)</f>
+      <c r="C8" s="25">
+        <f t="shared" ref="C8:D8" si="6">STDEV(C14:C259)</f>
         <v>633.08110269017652</v>
       </c>
-      <c r="D6" s="25">
-        <f t="shared" si="4"/>
+      <c r="D8" s="25">
+        <f t="shared" si="6"/>
         <v>1265.5501224113868</v>
       </c>
-      <c r="E6" s="25">
-        <f>STDEV(E12:E257)</f>
+      <c r="E8" s="25">
+        <f>STDEV(E14:E259)</f>
         <v>1899.6528094494904</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D10" t="s">
         <v>4</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E10" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>99</v>
-      </c>
-      <c r="C9">
-        <v>1500</v>
-      </c>
-      <c r="D9">
-        <v>3000</v>
-      </c>
-      <c r="E9">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>63</v>
-      </c>
-      <c r="C10">
-        <v>1500</v>
-      </c>
-      <c r="D10">
-        <v>345</v>
-      </c>
-      <c r="E10">
-        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="C11">
-        <v>165</v>
+        <v>1500</v>
       </c>
       <c r="D11">
         <v>3000</v>
       </c>
       <c r="E11">
-        <v>4500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12">
-        <v>300</v>
+        <v>63</v>
       </c>
       <c r="C12">
-        <v>156</v>
+        <v>1500</v>
       </c>
       <c r="D12">
-        <v>3000</v>
+        <v>345</v>
       </c>
       <c r="E12">
-        <v>261</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="D13">
-        <v>129</v>
+        <v>3000</v>
       </c>
       <c r="E13">
-        <v>1326</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -30925,125 +31489,125 @@
         <v>300</v>
       </c>
       <c r="C14">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="D14">
         <v>3000</v>
       </c>
       <c r="E14">
-        <v>1134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="D15">
-        <v>3000</v>
+        <v>129</v>
       </c>
       <c r="E15">
-        <v>153</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16">
-        <v>48</v>
+        <v>300</v>
       </c>
       <c r="C16">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="D16">
-        <v>87</v>
+        <v>3000</v>
       </c>
       <c r="E16">
-        <v>777</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>300</v>
+        <v>105</v>
       </c>
       <c r="C17">
-        <v>1500</v>
+        <v>198</v>
       </c>
       <c r="D17">
         <v>3000</v>
       </c>
       <c r="E17">
-        <v>963</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C18">
-        <v>1500</v>
+        <v>168</v>
       </c>
       <c r="D18">
-        <v>3000</v>
+        <v>87</v>
       </c>
       <c r="E18">
-        <v>234</v>
+        <v>777</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19">
-        <v>84</v>
+        <v>300</v>
       </c>
       <c r="C19">
-        <v>240</v>
+        <v>1500</v>
       </c>
       <c r="D19">
         <v>3000</v>
       </c>
       <c r="E19">
-        <v>108</v>
+        <v>963</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="C20">
-        <v>99</v>
+        <v>1500</v>
       </c>
       <c r="D20">
         <v>3000</v>
       </c>
       <c r="E20">
-        <v>4440</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21">
-        <v>300</v>
+        <v>84</v>
       </c>
       <c r="C21">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="D21">
         <v>3000</v>
       </c>
       <c r="E21">
-        <v>4500</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="C22">
-        <v>1500</v>
+        <v>99</v>
       </c>
       <c r="D22">
-        <v>342</v>
+        <v>3000</v>
       </c>
       <c r="E22">
-        <v>4500</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
@@ -31051,108 +31615,108 @@
         <v>300</v>
       </c>
       <c r="C23">
-        <v>810</v>
+        <v>81</v>
       </c>
       <c r="D23">
-        <v>738</v>
+        <v>3000</v>
       </c>
       <c r="E23">
-        <v>237</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="C24">
-        <v>51</v>
+        <v>1500</v>
       </c>
       <c r="D24">
-        <v>75</v>
+        <v>342</v>
       </c>
       <c r="E24">
-        <v>3000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25">
-        <v>102</v>
+        <v>300</v>
       </c>
       <c r="C25">
-        <v>546</v>
+        <v>810</v>
       </c>
       <c r="D25">
-        <v>267</v>
+        <v>738</v>
       </c>
       <c r="E25">
-        <v>4500</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="C26">
-        <v>1500</v>
+        <v>51</v>
       </c>
       <c r="D26">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="E26">
-        <v>1308</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27">
-        <v>300</v>
+        <v>102</v>
       </c>
       <c r="C27">
-        <v>1500</v>
+        <v>546</v>
       </c>
       <c r="D27">
-        <v>2100</v>
+        <v>267</v>
       </c>
       <c r="E27">
-        <v>3489</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C28">
-        <v>108</v>
+        <v>1500</v>
       </c>
       <c r="D28">
-        <v>231</v>
+        <v>102</v>
       </c>
       <c r="E28">
-        <v>4500</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="C29">
-        <v>252</v>
+        <v>1500</v>
       </c>
       <c r="D29">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="E29">
-        <v>1374</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="C30">
-        <v>1500</v>
+        <v>108</v>
       </c>
       <c r="D30">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="E30">
         <v>4500</v>
@@ -31160,30 +31724,30 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>1500</v>
+        <v>252</v>
       </c>
       <c r="D31">
-        <v>909</v>
+        <v>3000</v>
       </c>
       <c r="E31">
-        <v>4500</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C32">
         <v>1500</v>
       </c>
       <c r="D32">
-        <v>1044</v>
+        <v>201</v>
       </c>
       <c r="E32">
-        <v>1038</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
@@ -31194,7 +31758,7 @@
         <v>1500</v>
       </c>
       <c r="D33">
-        <v>2001</v>
+        <v>909</v>
       </c>
       <c r="E33">
         <v>4500</v>
@@ -31202,16 +31766,16 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C34">
-        <v>531</v>
+        <v>1500</v>
       </c>
       <c r="D34">
-        <v>753</v>
+        <v>1044</v>
       </c>
       <c r="E34">
-        <v>4500</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
@@ -31219,80 +31783,80 @@
         <v>300</v>
       </c>
       <c r="C35">
-        <v>858</v>
+        <v>1500</v>
       </c>
       <c r="D35">
-        <v>870</v>
+        <v>2001</v>
       </c>
       <c r="E35">
-        <v>237</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36">
-        <v>300</v>
+        <v>18</v>
       </c>
       <c r="C36">
-        <v>78</v>
+        <v>531</v>
       </c>
       <c r="D36">
-        <v>921</v>
+        <v>753</v>
       </c>
       <c r="E36">
-        <v>2580</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="C37">
-        <v>1500</v>
+        <v>858</v>
       </c>
       <c r="D37">
-        <v>132</v>
+        <v>870</v>
       </c>
       <c r="E37">
-        <v>1596</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38">
-        <v>18</v>
+        <v>300</v>
       </c>
       <c r="C38">
-        <v>1500</v>
+        <v>78</v>
       </c>
       <c r="D38">
-        <v>936</v>
+        <v>921</v>
       </c>
       <c r="E38">
-        <v>4500</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39">
-        <v>300</v>
+        <v>36</v>
       </c>
       <c r="C39">
-        <v>36</v>
+        <v>1500</v>
       </c>
       <c r="D39">
-        <v>1821</v>
+        <v>132</v>
       </c>
       <c r="E39">
-        <v>4500</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40">
-        <v>300</v>
+        <v>18</v>
       </c>
       <c r="C40">
-        <v>522</v>
+        <v>1500</v>
       </c>
       <c r="D40">
-        <v>3000</v>
+        <v>936</v>
       </c>
       <c r="E40">
         <v>4500</v>
@@ -31300,13 +31864,13 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="C41">
-        <v>1500</v>
+        <v>36</v>
       </c>
       <c r="D41">
-        <v>474</v>
+        <v>1821</v>
       </c>
       <c r="E41">
         <v>4500</v>
@@ -31317,7 +31881,7 @@
         <v>300</v>
       </c>
       <c r="C42">
-        <v>1500</v>
+        <v>522</v>
       </c>
       <c r="D42">
         <v>3000</v>
@@ -31328,16 +31892,16 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C43">
-        <v>132</v>
+        <v>1500</v>
       </c>
       <c r="D43">
-        <v>3000</v>
+        <v>474</v>
       </c>
       <c r="E43">
-        <v>402</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
@@ -31345,7 +31909,7 @@
         <v>300</v>
       </c>
       <c r="C44">
-        <v>456</v>
+        <v>1500</v>
       </c>
       <c r="D44">
         <v>3000</v>
@@ -31356,16 +31920,16 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45">
-        <v>300</v>
+        <v>39</v>
       </c>
       <c r="C45">
-        <v>1500</v>
+        <v>132</v>
       </c>
       <c r="D45">
         <v>3000</v>
       </c>
       <c r="E45">
-        <v>111</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
@@ -31373,10 +31937,10 @@
         <v>300</v>
       </c>
       <c r="C46">
-        <v>1500</v>
+        <v>456</v>
       </c>
       <c r="D46">
-        <v>1065</v>
+        <v>3000</v>
       </c>
       <c r="E46">
         <v>4500</v>
@@ -31384,69 +31948,69 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47">
-        <v>27</v>
+        <v>300</v>
       </c>
       <c r="C47">
         <v>1500</v>
       </c>
       <c r="D47">
-        <v>363</v>
+        <v>3000</v>
       </c>
       <c r="E47">
-        <v>1566</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="C48">
         <v>1500</v>
       </c>
       <c r="D48">
-        <v>156</v>
+        <v>1065</v>
       </c>
       <c r="E48">
-        <v>327</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49">
-        <v>300</v>
+        <v>27</v>
       </c>
       <c r="C49">
         <v>1500</v>
       </c>
       <c r="D49">
-        <v>75</v>
+        <v>363</v>
       </c>
       <c r="E49">
-        <v>4500</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="C50">
-        <v>345</v>
+        <v>1500</v>
       </c>
       <c r="D50">
-        <v>219</v>
+        <v>156</v>
       </c>
       <c r="E50">
-        <v>4500</v>
+        <v>327</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51">
-        <v>93</v>
+        <v>300</v>
       </c>
       <c r="C51">
-        <v>999</v>
+        <v>1500</v>
       </c>
       <c r="D51">
-        <v>3000</v>
+        <v>75</v>
       </c>
       <c r="E51">
         <v>4500</v>
@@ -31454,83 +32018,83 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="C52">
-        <v>1500</v>
+        <v>345</v>
       </c>
       <c r="D52">
-        <v>3000</v>
+        <v>219</v>
       </c>
       <c r="E52">
-        <v>756</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="C53">
-        <v>78</v>
+        <v>999</v>
       </c>
       <c r="D53">
-        <v>993</v>
+        <v>3000</v>
       </c>
       <c r="E53">
-        <v>249</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54">
-        <v>300</v>
+        <v>21</v>
       </c>
       <c r="C54">
         <v>1500</v>
       </c>
       <c r="D54">
-        <v>1719</v>
+        <v>3000</v>
       </c>
       <c r="E54">
-        <v>300</v>
+        <v>756</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55">
-        <v>300</v>
+        <v>24</v>
       </c>
       <c r="C55">
-        <v>1161</v>
+        <v>78</v>
       </c>
       <c r="D55">
-        <v>156</v>
+        <v>993</v>
       </c>
       <c r="E55">
-        <v>4500</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="C56">
-        <v>435</v>
+        <v>1500</v>
       </c>
       <c r="D56">
-        <v>3000</v>
+        <v>1719</v>
       </c>
       <c r="E56">
-        <v>723</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57">
-        <v>18</v>
+        <v>300</v>
       </c>
       <c r="C57">
-        <v>1500</v>
+        <v>1161</v>
       </c>
       <c r="D57">
-        <v>3000</v>
+        <v>156</v>
       </c>
       <c r="E57">
         <v>4500</v>
@@ -31538,44 +32102,44 @@
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="C58">
-        <v>1500</v>
+        <v>435</v>
       </c>
       <c r="D58">
-        <v>60</v>
+        <v>3000</v>
       </c>
       <c r="E58">
-        <v>156</v>
+        <v>723</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59">
-        <v>300</v>
+        <v>18</v>
       </c>
       <c r="C59">
-        <v>378</v>
+        <v>1500</v>
       </c>
       <c r="D59">
         <v>3000</v>
       </c>
       <c r="E59">
-        <v>2433</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="C60">
-        <v>441</v>
+        <v>1500</v>
       </c>
       <c r="D60">
-        <v>522</v>
+        <v>60</v>
       </c>
       <c r="E60">
-        <v>1641</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
@@ -31583,150 +32147,150 @@
         <v>300</v>
       </c>
       <c r="C61">
-        <v>87</v>
+        <v>378</v>
       </c>
       <c r="D61">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="E61">
-        <v>474</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="C62">
-        <v>99</v>
+        <v>441</v>
       </c>
       <c r="D62">
-        <v>3000</v>
+        <v>522</v>
       </c>
       <c r="E62">
-        <v>663</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63">
-        <v>42</v>
+        <v>300</v>
       </c>
       <c r="C63">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="D63">
-        <v>1113</v>
+        <v>72</v>
       </c>
       <c r="E63">
-        <v>495</v>
+        <v>474</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="C64">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="D64">
-        <v>846</v>
+        <v>3000</v>
       </c>
       <c r="E64">
-        <v>504</v>
+        <v>663</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="C65">
-        <v>1479</v>
+        <v>36</v>
       </c>
       <c r="D65">
-        <v>2043</v>
+        <v>1113</v>
       </c>
       <c r="E65">
-        <v>4500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66">
-        <v>87</v>
+        <v>300</v>
       </c>
       <c r="C66">
-        <v>321</v>
+        <v>36</v>
       </c>
       <c r="D66">
-        <v>102</v>
+        <v>846</v>
       </c>
       <c r="E66">
-        <v>600</v>
+        <v>504</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="C67">
-        <v>258</v>
+        <v>1479</v>
       </c>
       <c r="D67">
-        <v>156</v>
+        <v>2043</v>
       </c>
       <c r="E67">
-        <v>372</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68">
-        <v>300</v>
+        <v>87</v>
       </c>
       <c r="C68">
-        <v>51</v>
+        <v>321</v>
       </c>
       <c r="D68">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E68">
-        <v>4500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="C69">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="D69">
-        <v>219</v>
+        <v>156</v>
       </c>
       <c r="E69">
-        <v>4500</v>
+        <v>372</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70">
-        <v>102</v>
+        <v>300</v>
       </c>
       <c r="C70">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c r="D70">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="E70">
-        <v>834</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="C71">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="D71">
-        <v>372</v>
+        <v>219</v>
       </c>
       <c r="E71">
         <v>4500</v>
@@ -31734,58 +32298,58 @@
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="C72">
-        <v>459</v>
+        <v>171</v>
       </c>
       <c r="D72">
-        <v>1821</v>
+        <v>156</v>
       </c>
       <c r="E72">
-        <v>291</v>
+        <v>834</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="C73">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="D73">
-        <v>120</v>
+        <v>372</v>
       </c>
       <c r="E73">
-        <v>438</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74">
-        <v>300</v>
+        <v>27</v>
       </c>
       <c r="C74">
-        <v>36</v>
+        <v>459</v>
       </c>
       <c r="D74">
-        <v>3000</v>
+        <v>1821</v>
       </c>
       <c r="E74">
-        <v>195</v>
+        <v>291</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C75">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="D75">
-        <v>645</v>
+        <v>120</v>
       </c>
       <c r="E75">
-        <v>4500</v>
+        <v>438</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
@@ -31793,223 +32357,223 @@
         <v>300</v>
       </c>
       <c r="C76">
-        <v>1500</v>
+        <v>36</v>
       </c>
       <c r="D76">
         <v>3000</v>
       </c>
       <c r="E76">
-        <v>1128</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C77">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="D77">
-        <v>1095</v>
+        <v>645</v>
       </c>
       <c r="E77">
-        <v>189</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78">
-        <v>21</v>
+        <v>300</v>
       </c>
       <c r="C78">
-        <v>99</v>
+        <v>1500</v>
       </c>
       <c r="D78">
         <v>3000</v>
       </c>
       <c r="E78">
-        <v>4083</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="C79">
-        <v>1449</v>
+        <v>42</v>
       </c>
       <c r="D79">
-        <v>288</v>
+        <v>1095</v>
       </c>
       <c r="E79">
-        <v>402</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C80">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="D80">
-        <v>357</v>
+        <v>3000</v>
       </c>
       <c r="E80">
-        <v>4500</v>
+        <v>4083</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81">
-        <v>171</v>
+        <v>300</v>
       </c>
       <c r="C81">
-        <v>1500</v>
+        <v>1449</v>
       </c>
       <c r="D81">
-        <v>1095</v>
+        <v>288</v>
       </c>
       <c r="E81">
-        <v>210</v>
+        <v>402</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C82">
-        <v>1050</v>
+        <v>171</v>
       </c>
       <c r="D82">
-        <v>765</v>
+        <v>357</v>
       </c>
       <c r="E82">
-        <v>1503</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83">
-        <v>300</v>
+        <v>171</v>
       </c>
       <c r="C83">
-        <v>180</v>
+        <v>1500</v>
       </c>
       <c r="D83">
-        <v>72</v>
+        <v>1095</v>
       </c>
       <c r="E83">
-        <v>4500</v>
+        <v>210</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C84">
-        <v>36</v>
+        <v>1050</v>
       </c>
       <c r="D84">
-        <v>3000</v>
+        <v>765</v>
       </c>
       <c r="E84">
-        <v>1698</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="C85">
-        <v>423</v>
+        <v>180</v>
       </c>
       <c r="D85">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E85">
-        <v>120</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="C86">
-        <v>510</v>
+        <v>36</v>
       </c>
       <c r="D86">
-        <v>693</v>
+        <v>3000</v>
       </c>
       <c r="E86">
-        <v>4500</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="C87">
-        <v>30</v>
+        <v>423</v>
       </c>
       <c r="D87">
-        <v>3000</v>
+        <v>63</v>
       </c>
       <c r="E87">
-        <v>4500</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88">
-        <v>51</v>
+        <v>300</v>
       </c>
       <c r="C88">
-        <v>1221</v>
+        <v>510</v>
       </c>
       <c r="D88">
-        <v>69</v>
+        <v>693</v>
       </c>
       <c r="E88">
-        <v>105</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="C89">
-        <v>222</v>
+        <v>30</v>
       </c>
       <c r="D89">
-        <v>144</v>
+        <v>3000</v>
       </c>
       <c r="E89">
-        <v>759</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90">
-        <v>300</v>
+        <v>51</v>
       </c>
       <c r="C90">
-        <v>1500</v>
+        <v>1221</v>
       </c>
       <c r="D90">
-        <v>3000</v>
+        <v>69</v>
       </c>
       <c r="E90">
-        <v>4500</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C91">
-        <v>540</v>
+        <v>222</v>
       </c>
       <c r="D91">
-        <v>3000</v>
+        <v>144</v>
       </c>
       <c r="E91">
-        <v>411</v>
+        <v>759</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
@@ -32017,27 +32581,27 @@
         <v>300</v>
       </c>
       <c r="C92">
-        <v>60</v>
+        <v>1500</v>
       </c>
       <c r="D92">
         <v>3000</v>
       </c>
       <c r="E92">
-        <v>1404</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93">
-        <v>300</v>
+        <v>33</v>
       </c>
       <c r="C93">
-        <v>1500</v>
+        <v>540</v>
       </c>
       <c r="D93">
-        <v>93</v>
+        <v>3000</v>
       </c>
       <c r="E93">
-        <v>4500</v>
+        <v>411</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
@@ -32045,80 +32609,80 @@
         <v>300</v>
       </c>
       <c r="C94">
-        <v>1500</v>
+        <v>60</v>
       </c>
       <c r="D94">
-        <v>111</v>
+        <v>3000</v>
       </c>
       <c r="E94">
-        <v>4500</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95">
-        <v>48</v>
+        <v>300</v>
       </c>
       <c r="C95">
-        <v>846</v>
+        <v>1500</v>
       </c>
       <c r="D95">
-        <v>3000</v>
+        <v>93</v>
       </c>
       <c r="E95">
-        <v>180</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96">
-        <v>48</v>
+        <v>300</v>
       </c>
       <c r="C96">
-        <v>135</v>
+        <v>1500</v>
       </c>
       <c r="D96">
-        <v>351</v>
+        <v>111</v>
       </c>
       <c r="E96">
-        <v>2541</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C97">
-        <v>468</v>
+        <v>846</v>
       </c>
       <c r="D97">
-        <v>120</v>
+        <v>3000</v>
       </c>
       <c r="E97">
-        <v>4500</v>
+        <v>180</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="C98">
-        <v>1500</v>
+        <v>135</v>
       </c>
       <c r="D98">
-        <v>84</v>
+        <v>351</v>
       </c>
       <c r="E98">
-        <v>4500</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C99">
-        <v>1500</v>
+        <v>468</v>
       </c>
       <c r="D99">
-        <v>3000</v>
+        <v>120</v>
       </c>
       <c r="E99">
         <v>4500</v>
@@ -32126,21 +32690,21 @@
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="C100">
-        <v>132</v>
+        <v>1500</v>
       </c>
       <c r="D100">
-        <v>3000</v>
+        <v>84</v>
       </c>
       <c r="E100">
-        <v>1536</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="C101">
         <v>1500</v>
@@ -32154,86 +32718,86 @@
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102">
-        <v>300</v>
+        <v>33</v>
       </c>
       <c r="C102">
-        <v>1500</v>
+        <v>132</v>
       </c>
       <c r="D102">
         <v>3000</v>
       </c>
       <c r="E102">
-        <v>4500</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103">
-        <v>24</v>
+        <v>300</v>
       </c>
       <c r="C103">
         <v>1500</v>
       </c>
       <c r="D103">
-        <v>1131</v>
+        <v>3000</v>
       </c>
       <c r="E103">
-        <v>399</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104">
-        <v>33</v>
+        <v>300</v>
       </c>
       <c r="C104">
-        <v>510</v>
+        <v>1500</v>
       </c>
       <c r="D104">
-        <v>870</v>
+        <v>3000</v>
       </c>
       <c r="E104">
-        <v>666</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105">
-        <v>300</v>
+        <v>24</v>
       </c>
       <c r="C105">
         <v>1500</v>
       </c>
       <c r="D105">
-        <v>3000</v>
+        <v>1131</v>
       </c>
       <c r="E105">
-        <v>3663</v>
+        <v>399</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106">
-        <v>300</v>
+        <v>33</v>
       </c>
       <c r="C106">
-        <v>252</v>
+        <v>510</v>
       </c>
       <c r="D106">
-        <v>249</v>
+        <v>870</v>
       </c>
       <c r="E106">
-        <v>4500</v>
+        <v>666</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="C107">
         <v>1500</v>
       </c>
       <c r="D107">
-        <v>2325</v>
+        <v>3000</v>
       </c>
       <c r="E107">
-        <v>1623</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
@@ -32241,10 +32805,10 @@
         <v>300</v>
       </c>
       <c r="C108">
-        <v>501</v>
+        <v>252</v>
       </c>
       <c r="D108">
-        <v>72</v>
+        <v>249</v>
       </c>
       <c r="E108">
         <v>4500</v>
@@ -32255,13 +32819,13 @@
         <v>6</v>
       </c>
       <c r="C109">
-        <v>69</v>
+        <v>1500</v>
       </c>
       <c r="D109">
-        <v>2442</v>
+        <v>2325</v>
       </c>
       <c r="E109">
-        <v>519</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
@@ -32269,500 +32833,500 @@
         <v>300</v>
       </c>
       <c r="C110">
-        <v>132</v>
+        <v>501</v>
       </c>
       <c r="D110">
-        <v>198</v>
+        <v>72</v>
       </c>
       <c r="E110">
-        <v>4353</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111">
-        <v>168</v>
+        <v>6</v>
       </c>
       <c r="C111">
-        <v>1500</v>
+        <v>69</v>
       </c>
       <c r="D111">
-        <v>360</v>
+        <v>2442</v>
       </c>
       <c r="E111">
-        <v>1272</v>
+        <v>519</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="C112">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="D112">
-        <v>1023</v>
+        <v>198</v>
       </c>
       <c r="E112">
-        <v>96</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="C113">
         <v>1500</v>
       </c>
       <c r="D113">
-        <v>444</v>
+        <v>360</v>
       </c>
       <c r="E113">
-        <v>1530</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114">
+        <v>6</v>
+      </c>
+      <c r="C114">
         <v>33</v>
       </c>
-      <c r="C114">
-        <v>564</v>
-      </c>
       <c r="D114">
-        <v>3000</v>
+        <v>1023</v>
       </c>
       <c r="E114">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C115">
         <v>1500</v>
       </c>
       <c r="D115">
-        <v>3000</v>
+        <v>444</v>
       </c>
       <c r="E115">
-        <v>540</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C116">
-        <v>39</v>
+        <v>564</v>
       </c>
       <c r="D116">
-        <v>219</v>
+        <v>3000</v>
       </c>
       <c r="E116">
-        <v>3150</v>
+        <v>108</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="C117">
-        <v>96</v>
+        <v>1500</v>
       </c>
       <c r="D117">
         <v>3000</v>
       </c>
       <c r="E117">
-        <v>111</v>
+        <v>540</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C118">
-        <v>1500</v>
+        <v>39</v>
       </c>
       <c r="D118">
-        <v>3000</v>
+        <v>219</v>
       </c>
       <c r="E118">
-        <v>93</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C119">
-        <v>276</v>
+        <v>96</v>
       </c>
       <c r="D119">
-        <v>201</v>
+        <v>3000</v>
       </c>
       <c r="E119">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120">
-        <v>231</v>
+        <v>9</v>
       </c>
       <c r="C120">
-        <v>144</v>
+        <v>1500</v>
       </c>
       <c r="D120">
-        <v>2958</v>
+        <v>3000</v>
       </c>
       <c r="E120">
-        <v>4500</v>
+        <v>93</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="C121">
-        <v>63</v>
+        <v>276</v>
       </c>
       <c r="D121">
-        <v>555</v>
+        <v>201</v>
       </c>
       <c r="E121">
-        <v>303</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122">
-        <v>36</v>
+        <v>231</v>
       </c>
       <c r="C122">
-        <v>375</v>
+        <v>144</v>
       </c>
       <c r="D122">
-        <v>756</v>
+        <v>2958</v>
       </c>
       <c r="E122">
-        <v>369</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="C123">
-        <v>1359</v>
+        <v>63</v>
       </c>
       <c r="D123">
-        <v>168</v>
+        <v>555</v>
       </c>
       <c r="E123">
-        <v>513</v>
+        <v>303</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124">
-        <v>300</v>
+        <v>36</v>
       </c>
       <c r="C124">
-        <v>63</v>
+        <v>375</v>
       </c>
       <c r="D124">
-        <v>159</v>
+        <v>756</v>
       </c>
       <c r="E124">
-        <v>327</v>
+        <v>369</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C125">
-        <v>1500</v>
+        <v>1359</v>
       </c>
       <c r="D125">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="E125">
-        <v>1383</v>
+        <v>513</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B126">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="C126">
-        <v>1500</v>
+        <v>63</v>
       </c>
       <c r="D126">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="E126">
-        <v>4500</v>
+        <v>327</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="C127">
-        <v>45</v>
+        <v>1500</v>
       </c>
       <c r="D127">
-        <v>519</v>
+        <v>210</v>
       </c>
       <c r="E127">
-        <v>237</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B128">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="C128">
-        <v>99</v>
+        <v>1500</v>
       </c>
       <c r="D128">
-        <v>2721</v>
+        <v>87</v>
       </c>
       <c r="E128">
-        <v>93</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="C129">
-        <v>1500</v>
+        <v>45</v>
       </c>
       <c r="D129">
-        <v>3000</v>
+        <v>519</v>
       </c>
       <c r="E129">
-        <v>4500</v>
+        <v>237</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B130">
-        <v>300</v>
+        <v>18</v>
       </c>
       <c r="C130">
-        <v>429</v>
+        <v>99</v>
       </c>
       <c r="D130">
-        <v>2838</v>
+        <v>2721</v>
       </c>
       <c r="E130">
-        <v>252</v>
+        <v>93</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B131">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C131">
-        <v>105</v>
+        <v>1500</v>
       </c>
       <c r="D131">
-        <v>444</v>
+        <v>3000</v>
       </c>
       <c r="E131">
-        <v>489</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B132">
-        <v>48</v>
+        <v>300</v>
       </c>
       <c r="C132">
-        <v>1500</v>
+        <v>429</v>
       </c>
       <c r="D132">
-        <v>3000</v>
+        <v>2838</v>
       </c>
       <c r="E132">
-        <v>147</v>
+        <v>252</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B133">
-        <v>300</v>
+        <v>18</v>
       </c>
       <c r="C133">
-        <v>207</v>
+        <v>105</v>
       </c>
       <c r="D133">
-        <v>315</v>
+        <v>444</v>
       </c>
       <c r="E133">
-        <v>4500</v>
+        <v>489</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B134">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C134">
-        <v>45</v>
+        <v>1500</v>
       </c>
       <c r="D134">
         <v>3000</v>
       </c>
       <c r="E134">
-        <v>3063</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B135">
-        <v>9</v>
+        <v>300</v>
       </c>
       <c r="C135">
-        <v>1500</v>
+        <v>207</v>
       </c>
       <c r="D135">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E135">
-        <v>90</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B136">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C136">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="D136">
         <v>3000</v>
       </c>
       <c r="E136">
-        <v>234</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B137">
-        <v>300</v>
+        <v>9</v>
       </c>
       <c r="C137">
-        <v>30</v>
+        <v>1500</v>
       </c>
       <c r="D137">
-        <v>3000</v>
+        <v>324</v>
       </c>
       <c r="E137">
-        <v>231</v>
+        <v>90</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B138">
-        <v>300</v>
+        <v>9</v>
       </c>
       <c r="C138">
-        <v>423</v>
+        <v>87</v>
       </c>
       <c r="D138">
         <v>3000</v>
       </c>
       <c r="E138">
-        <v>1668</v>
+        <v>234</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B139">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="C139">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="D139">
-        <v>915</v>
+        <v>3000</v>
       </c>
       <c r="E139">
-        <v>4500</v>
+        <v>231</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B140">
-        <v>33</v>
+        <v>300</v>
       </c>
       <c r="C140">
-        <v>186</v>
+        <v>423</v>
       </c>
       <c r="D140">
-        <v>165</v>
+        <v>3000</v>
       </c>
       <c r="E140">
-        <v>786</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B141">
-        <v>255</v>
+        <v>6</v>
       </c>
       <c r="C141">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="D141">
-        <v>399</v>
+        <v>915</v>
       </c>
       <c r="E141">
-        <v>273</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B142">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C142">
-        <v>1500</v>
+        <v>186</v>
       </c>
       <c r="D142">
-        <v>3000</v>
+        <v>165</v>
       </c>
       <c r="E142">
-        <v>108</v>
+        <v>786</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B143">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="C143">
-        <v>1500</v>
+        <v>174</v>
       </c>
       <c r="D143">
-        <v>3000</v>
+        <v>399</v>
       </c>
       <c r="E143">
-        <v>4500</v>
+        <v>273</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B144">
-        <v>300</v>
+        <v>9</v>
       </c>
       <c r="C144">
         <v>1500</v>
       </c>
       <c r="D144">
-        <v>198</v>
+        <v>3000</v>
       </c>
       <c r="E144">
-        <v>432</v>
+        <v>108</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B145">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="C145">
-        <v>144</v>
+        <v>1500</v>
       </c>
       <c r="D145">
-        <v>72</v>
+        <v>3000</v>
       </c>
       <c r="E145">
         <v>4500</v>
@@ -32773,41 +33337,41 @@
         <v>300</v>
       </c>
       <c r="C146">
-        <v>114</v>
+        <v>1500</v>
       </c>
       <c r="D146">
-        <v>252</v>
+        <v>198</v>
       </c>
       <c r="E146">
-        <v>1305</v>
+        <v>432</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B147">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="C147">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="D147">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="E147">
-        <v>249</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B148">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="C148">
-        <v>1500</v>
+        <v>114</v>
       </c>
       <c r="D148">
-        <v>3000</v>
+        <v>252</v>
       </c>
       <c r="E148">
-        <v>4500</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.2">
@@ -32815,69 +33379,69 @@
         <v>300</v>
       </c>
       <c r="C149">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D149">
-        <v>1083</v>
+        <v>3000</v>
       </c>
       <c r="E149">
-        <v>90</v>
+        <v>249</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B150">
-        <v>243</v>
+        <v>75</v>
       </c>
       <c r="C150">
-        <v>54</v>
+        <v>1500</v>
       </c>
       <c r="D150">
         <v>3000</v>
       </c>
       <c r="E150">
-        <v>132</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B151">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="C151">
-        <v>1500</v>
+        <v>42</v>
       </c>
       <c r="D151">
-        <v>885</v>
+        <v>1083</v>
       </c>
       <c r="E151">
-        <v>693</v>
+        <v>90</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B152">
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="C152">
-        <v>948</v>
+        <v>54</v>
       </c>
       <c r="D152">
-        <v>336</v>
+        <v>3000</v>
       </c>
       <c r="E152">
-        <v>234</v>
+        <v>132</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B153">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C153">
-        <v>177</v>
+        <v>1500</v>
       </c>
       <c r="D153">
-        <v>3000</v>
+        <v>885</v>
       </c>
       <c r="E153">
-        <v>198</v>
+        <v>693</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.2">
@@ -32885,83 +33449,83 @@
         <v>300</v>
       </c>
       <c r="C154">
-        <v>1500</v>
+        <v>948</v>
       </c>
       <c r="D154">
-        <v>3000</v>
+        <v>336</v>
       </c>
       <c r="E154">
-        <v>4500</v>
+        <v>234</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B155">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C155">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D155">
         <v>3000</v>
       </c>
       <c r="E155">
-        <v>105</v>
+        <v>198</v>
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B156">
-        <v>9</v>
+        <v>300</v>
       </c>
       <c r="C156">
-        <v>36</v>
+        <v>1500</v>
       </c>
       <c r="D156">
-        <v>858</v>
+        <v>3000</v>
       </c>
       <c r="E156">
-        <v>132</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B157">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C157">
-        <v>909</v>
+        <v>168</v>
       </c>
       <c r="D157">
-        <v>60</v>
+        <v>3000</v>
       </c>
       <c r="E157">
-        <v>177</v>
+        <v>105</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B158">
-        <v>300</v>
+        <v>9</v>
       </c>
       <c r="C158">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="D158">
-        <v>975</v>
+        <v>858</v>
       </c>
       <c r="E158">
-        <v>4500</v>
+        <v>132</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B159">
-        <v>207</v>
+        <v>45</v>
       </c>
       <c r="C159">
-        <v>321</v>
+        <v>909</v>
       </c>
       <c r="D159">
-        <v>288</v>
+        <v>60</v>
       </c>
       <c r="E159">
-        <v>132</v>
+        <v>177</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
@@ -32969,10 +33533,10 @@
         <v>300</v>
       </c>
       <c r="C160">
-        <v>1035</v>
+        <v>144</v>
       </c>
       <c r="D160">
-        <v>207</v>
+        <v>975</v>
       </c>
       <c r="E160">
         <v>4500</v>
@@ -32980,16 +33544,16 @@
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B161">
-        <v>96</v>
+        <v>207</v>
       </c>
       <c r="C161">
-        <v>33</v>
+        <v>321</v>
       </c>
       <c r="D161">
-        <v>3000</v>
+        <v>288</v>
       </c>
       <c r="E161">
-        <v>537</v>
+        <v>132</v>
       </c>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.2">
@@ -32997,10 +33561,10 @@
         <v>300</v>
       </c>
       <c r="C162">
-        <v>66</v>
+        <v>1035</v>
       </c>
       <c r="D162">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="E162">
         <v>4500</v>
@@ -33008,156 +33572,156 @@
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B163">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="C163">
-        <v>1500</v>
+        <v>33</v>
       </c>
       <c r="D163">
         <v>3000</v>
       </c>
       <c r="E163">
-        <v>126</v>
+        <v>537</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B164">
-        <v>27</v>
+        <v>300</v>
       </c>
       <c r="C164">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D164">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="E164">
-        <v>2850</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B165">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="C165">
         <v>1500</v>
       </c>
       <c r="D165">
-        <v>342</v>
+        <v>3000</v>
       </c>
       <c r="E165">
-        <v>4500</v>
+        <v>126</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B166">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="C166">
         <v>42</v>
       </c>
       <c r="D166">
-        <v>3000</v>
+        <v>156</v>
       </c>
       <c r="E166">
-        <v>168</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B167">
-        <v>198</v>
+        <v>300</v>
       </c>
       <c r="C167">
-        <v>57</v>
+        <v>1500</v>
       </c>
       <c r="D167">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="E167">
-        <v>3111</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B168">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="C168">
-        <v>1500</v>
+        <v>42</v>
       </c>
       <c r="D168">
         <v>3000</v>
       </c>
       <c r="E168">
-        <v>507</v>
+        <v>168</v>
       </c>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B169">
-        <v>15</v>
+        <v>198</v>
       </c>
       <c r="C169">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="D169">
-        <v>183</v>
+        <v>315</v>
       </c>
       <c r="E169">
-        <v>111</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B170">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C170">
         <v>1500</v>
       </c>
       <c r="D170">
-        <v>1623</v>
+        <v>3000</v>
       </c>
       <c r="E170">
-        <v>969</v>
+        <v>507</v>
       </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B171">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C171">
-        <v>1500</v>
+        <v>81</v>
       </c>
       <c r="D171">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="E171">
-        <v>2733</v>
+        <v>111</v>
       </c>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B172">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C172">
-        <v>36</v>
+        <v>1500</v>
       </c>
       <c r="D172">
-        <v>63</v>
+        <v>1623</v>
       </c>
       <c r="E172">
-        <v>438</v>
+        <v>969</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B173">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="C173">
         <v>1500</v>
       </c>
       <c r="D173">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="E173">
-        <v>432</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.2">
@@ -33165,52 +33729,52 @@
         <v>6</v>
       </c>
       <c r="C174">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="D174">
-        <v>3000</v>
+        <v>63</v>
       </c>
       <c r="E174">
-        <v>4500</v>
+        <v>438</v>
       </c>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B175">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="C175">
-        <v>435</v>
+        <v>1500</v>
       </c>
       <c r="D175">
-        <v>3000</v>
+        <v>69</v>
       </c>
       <c r="E175">
-        <v>4500</v>
+        <v>432</v>
       </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B176">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="C176">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="D176">
-        <v>246</v>
+        <v>3000</v>
       </c>
       <c r="E176">
-        <v>105</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B177">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="C177">
-        <v>42</v>
+        <v>435</v>
       </c>
       <c r="D177">
-        <v>102</v>
+        <v>3000</v>
       </c>
       <c r="E177">
         <v>4500</v>
@@ -33218,192 +33782,192 @@
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B178">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C178">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="D178">
-        <v>165</v>
+        <v>246</v>
       </c>
       <c r="E178">
-        <v>348</v>
+        <v>105</v>
       </c>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B179">
-        <v>87</v>
+        <v>300</v>
       </c>
       <c r="C179">
-        <v>231</v>
+        <v>42</v>
       </c>
       <c r="D179">
-        <v>3000</v>
+        <v>102</v>
       </c>
       <c r="E179">
-        <v>1269</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B180">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C180">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="D180">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="E180">
-        <v>96</v>
+        <v>348</v>
       </c>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B181">
-        <v>300</v>
+        <v>87</v>
       </c>
       <c r="C181">
-        <v>555</v>
+        <v>231</v>
       </c>
       <c r="D181">
-        <v>2901</v>
+        <v>3000</v>
       </c>
       <c r="E181">
-        <v>135</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B182">
-        <v>300</v>
+        <v>36</v>
       </c>
       <c r="C182">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="D182">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="E182">
-        <v>4500</v>
+        <v>96</v>
       </c>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B183">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="C183">
-        <v>78</v>
+        <v>555</v>
       </c>
       <c r="D183">
-        <v>3000</v>
+        <v>2901</v>
       </c>
       <c r="E183">
-        <v>261</v>
+        <v>135</v>
       </c>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B184">
-        <v>33</v>
+        <v>300</v>
       </c>
       <c r="C184">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="D184">
-        <v>87</v>
+        <v>3000</v>
       </c>
       <c r="E184">
-        <v>528</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B185">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="C185">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="D185">
         <v>3000</v>
       </c>
       <c r="E185">
-        <v>558</v>
+        <v>261</v>
       </c>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B186">
-        <v>300</v>
+        <v>33</v>
       </c>
       <c r="C186">
-        <v>1020</v>
+        <v>48</v>
       </c>
       <c r="D186">
-        <v>3000</v>
+        <v>87</v>
       </c>
       <c r="E186">
-        <v>4500</v>
+        <v>528</v>
       </c>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B187">
-        <v>75</v>
+        <v>282</v>
       </c>
       <c r="C187">
-        <v>1500</v>
+        <v>162</v>
       </c>
       <c r="D187">
-        <v>234</v>
+        <v>3000</v>
       </c>
       <c r="E187">
-        <v>762</v>
+        <v>558</v>
       </c>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B188">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="C188">
-        <v>1500</v>
+        <v>1020</v>
       </c>
       <c r="D188">
         <v>3000</v>
       </c>
       <c r="E188">
-        <v>300</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B189">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="C189">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="D189">
-        <v>3000</v>
+        <v>234</v>
       </c>
       <c r="E189">
-        <v>4500</v>
+        <v>762</v>
       </c>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B190">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C190">
-        <v>261</v>
+        <v>1500</v>
       </c>
       <c r="D190">
-        <v>2073</v>
+        <v>3000</v>
       </c>
       <c r="E190">
-        <v>1287</v>
+        <v>300</v>
       </c>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B191">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C191">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D191">
         <v>3000</v>
@@ -33414,27 +33978,27 @@
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B192">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C192">
-        <v>78</v>
+        <v>261</v>
       </c>
       <c r="D192">
-        <v>1002</v>
+        <v>2073</v>
       </c>
       <c r="E192">
-        <v>135</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B193">
-        <v>300</v>
+        <v>21</v>
       </c>
       <c r="C193">
-        <v>1500</v>
+        <v>30</v>
       </c>
       <c r="D193">
-        <v>774</v>
+        <v>3000</v>
       </c>
       <c r="E193">
         <v>4500</v>
@@ -33442,16 +34006,16 @@
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B194">
-        <v>300</v>
+        <v>9</v>
       </c>
       <c r="C194">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D194">
-        <v>63</v>
+        <v>1002</v>
       </c>
       <c r="E194">
-        <v>624</v>
+        <v>135</v>
       </c>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.2">
@@ -33462,49 +34026,49 @@
         <v>1500</v>
       </c>
       <c r="D195">
-        <v>417</v>
+        <v>774</v>
       </c>
       <c r="E195">
-        <v>318</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B196">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="C196">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="D196">
-        <v>1695</v>
+        <v>63</v>
       </c>
       <c r="E196">
-        <v>4500</v>
+        <v>624</v>
       </c>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B197">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="C197">
         <v>1500</v>
       </c>
       <c r="D197">
-        <v>3000</v>
+        <v>417</v>
       </c>
       <c r="E197">
-        <v>411</v>
+        <v>318</v>
       </c>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B198">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C198">
-        <v>453</v>
+        <v>126</v>
       </c>
       <c r="D198">
-        <v>90</v>
+        <v>1695</v>
       </c>
       <c r="E198">
         <v>4500</v>
@@ -33512,7 +34076,7 @@
     </row>
     <row r="199" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B199">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C199">
         <v>1500</v>
@@ -33521,35 +34085,35 @@
         <v>3000</v>
       </c>
       <c r="E199">
-        <v>111</v>
+        <v>411</v>
       </c>
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B200">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="C200">
-        <v>237</v>
+        <v>453</v>
       </c>
       <c r="D200">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E200">
-        <v>234</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B201">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="C201">
         <v>1500</v>
       </c>
       <c r="D201">
-        <v>231</v>
+        <v>3000</v>
       </c>
       <c r="E201">
-        <v>3864</v>
+        <v>111</v>
       </c>
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.2">
@@ -33557,125 +34121,125 @@
         <v>300</v>
       </c>
       <c r="C202">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="D202">
-        <v>273</v>
+        <v>72</v>
       </c>
       <c r="E202">
-        <v>1491</v>
+        <v>234</v>
       </c>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B203">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="C203">
-        <v>414</v>
+        <v>1500</v>
       </c>
       <c r="D203">
-        <v>303</v>
+        <v>231</v>
       </c>
       <c r="E203">
-        <v>159</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B204">
-        <v>102</v>
+        <v>300</v>
       </c>
       <c r="C204">
-        <v>387</v>
+        <v>222</v>
       </c>
       <c r="D204">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E204">
-        <v>351</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B205">
-        <v>288</v>
+        <v>12</v>
       </c>
       <c r="C205">
-        <v>108</v>
+        <v>414</v>
       </c>
       <c r="D205">
-        <v>3000</v>
+        <v>303</v>
       </c>
       <c r="E205">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B206">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C206">
-        <v>108</v>
+        <v>387</v>
       </c>
       <c r="D206">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="E206">
-        <v>1461</v>
+        <v>351</v>
       </c>
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B207">
-        <v>15</v>
+        <v>288</v>
       </c>
       <c r="C207">
-        <v>1500</v>
+        <v>108</v>
       </c>
       <c r="D207">
-        <v>141</v>
+        <v>3000</v>
       </c>
       <c r="E207">
-        <v>216</v>
+        <v>156</v>
       </c>
     </row>
     <row r="208" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B208">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C208">
-        <v>1500</v>
+        <v>108</v>
       </c>
       <c r="D208">
-        <v>483</v>
+        <v>219</v>
       </c>
       <c r="E208">
-        <v>1110</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="209" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B209">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="C209">
-        <v>93</v>
+        <v>1500</v>
       </c>
       <c r="D209">
-        <v>3000</v>
+        <v>141</v>
       </c>
       <c r="E209">
-        <v>108</v>
+        <v>216</v>
       </c>
     </row>
     <row r="210" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B210">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="C210">
-        <v>381</v>
+        <v>1500</v>
       </c>
       <c r="D210">
-        <v>267</v>
+        <v>483</v>
       </c>
       <c r="E210">
-        <v>4500</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="211" spans="2:5" x14ac:dyDescent="0.2">
@@ -33683,24 +34247,24 @@
         <v>300</v>
       </c>
       <c r="C211">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D211">
         <v>3000</v>
       </c>
       <c r="E211">
-        <v>4500</v>
+        <v>108</v>
       </c>
     </row>
     <row r="212" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B212">
-        <v>300</v>
+        <v>21</v>
       </c>
       <c r="C212">
-        <v>57</v>
+        <v>381</v>
       </c>
       <c r="D212">
-        <v>483</v>
+        <v>267</v>
       </c>
       <c r="E212">
         <v>4500</v>
@@ -33708,13 +34272,13 @@
     </row>
     <row r="213" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B213">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="C213">
-        <v>1500</v>
+        <v>102</v>
       </c>
       <c r="D213">
-        <v>849</v>
+        <v>3000</v>
       </c>
       <c r="E213">
         <v>4500</v>
@@ -33725,10 +34289,10 @@
         <v>300</v>
       </c>
       <c r="C214">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="D214">
-        <v>69</v>
+        <v>483</v>
       </c>
       <c r="E214">
         <v>4500</v>
@@ -33736,13 +34300,13 @@
     </row>
     <row r="215" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B215">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C215">
         <v>1500</v>
       </c>
       <c r="D215">
-        <v>504</v>
+        <v>849</v>
       </c>
       <c r="E215">
         <v>4500</v>
@@ -33750,13 +34314,13 @@
     </row>
     <row r="216" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B216">
+        <v>300</v>
+      </c>
+      <c r="C216">
+        <v>171</v>
+      </c>
+      <c r="D216">
         <v>69</v>
-      </c>
-      <c r="C216">
-        <v>546</v>
-      </c>
-      <c r="D216">
-        <v>72</v>
       </c>
       <c r="E216">
         <v>4500</v>
@@ -33764,209 +34328,209 @@
     </row>
     <row r="217" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B217">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C217">
         <v>1500</v>
       </c>
       <c r="D217">
-        <v>156</v>
+        <v>504</v>
       </c>
       <c r="E217">
-        <v>141</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="218" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B218">
-        <v>300</v>
+        <v>69</v>
       </c>
       <c r="C218">
-        <v>1500</v>
+        <v>546</v>
       </c>
       <c r="D218">
-        <v>3000</v>
+        <v>72</v>
       </c>
       <c r="E218">
-        <v>4257</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="219" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B219">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C219">
         <v>1500</v>
       </c>
       <c r="D219">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="E219">
-        <v>2733</v>
+        <v>141</v>
       </c>
     </row>
     <row r="220" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B220">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="C220">
-        <v>60</v>
+        <v>1500</v>
       </c>
       <c r="D220">
         <v>3000</v>
       </c>
       <c r="E220">
-        <v>546</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="221" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B221">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C221">
-        <v>114</v>
+        <v>1500</v>
       </c>
       <c r="D221">
-        <v>3000</v>
+        <v>87</v>
       </c>
       <c r="E221">
-        <v>4500</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="222" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B222">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="C222">
-        <v>1500</v>
+        <v>60</v>
       </c>
       <c r="D222">
-        <v>126</v>
+        <v>3000</v>
       </c>
       <c r="E222">
-        <v>726</v>
+        <v>546</v>
       </c>
     </row>
     <row r="223" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B223">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C223">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D223">
-        <v>642</v>
+        <v>3000</v>
       </c>
       <c r="E223">
-        <v>471</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="224" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B224">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="C224">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="D224">
-        <v>507</v>
+        <v>126</v>
       </c>
       <c r="E224">
-        <v>1182</v>
+        <v>726</v>
       </c>
     </row>
     <row r="225" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B225">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="C225">
-        <v>909</v>
+        <v>99</v>
       </c>
       <c r="D225">
-        <v>117</v>
+        <v>642</v>
       </c>
       <c r="E225">
-        <v>1587</v>
+        <v>471</v>
       </c>
     </row>
     <row r="226" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B226">
-        <v>210</v>
+        <v>6</v>
       </c>
       <c r="C226">
-        <v>1419</v>
+        <v>150</v>
       </c>
       <c r="D226">
-        <v>2577</v>
+        <v>507</v>
       </c>
       <c r="E226">
-        <v>180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="227" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B227">
-        <v>27</v>
+        <v>300</v>
       </c>
       <c r="C227">
-        <v>156</v>
+        <v>909</v>
       </c>
       <c r="D227">
-        <v>441</v>
+        <v>117</v>
       </c>
       <c r="E227">
-        <v>345</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="228" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B228">
-        <v>6</v>
+        <v>210</v>
       </c>
       <c r="C228">
-        <v>528</v>
+        <v>1419</v>
       </c>
       <c r="D228">
-        <v>3000</v>
+        <v>2577</v>
       </c>
       <c r="E228">
-        <v>4500</v>
+        <v>180</v>
       </c>
     </row>
     <row r="229" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B229">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="C229">
-        <v>393</v>
+        <v>156</v>
       </c>
       <c r="D229">
-        <v>192</v>
+        <v>441</v>
       </c>
       <c r="E229">
-        <v>4500</v>
+        <v>345</v>
       </c>
     </row>
     <row r="230" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B230">
-        <v>294</v>
+        <v>6</v>
       </c>
       <c r="C230">
-        <v>180</v>
+        <v>528</v>
       </c>
       <c r="D230">
-        <v>174</v>
+        <v>3000</v>
       </c>
       <c r="E230">
-        <v>453</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="231" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B231">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="C231">
-        <v>1500</v>
+        <v>393</v>
       </c>
       <c r="D231">
-        <v>90</v>
+        <v>192</v>
       </c>
       <c r="E231">
         <v>4500</v>
@@ -33974,139 +34538,139 @@
     </row>
     <row r="232" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B232">
-        <v>111</v>
+        <v>294</v>
       </c>
       <c r="C232">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="D232">
-        <v>462</v>
+        <v>174</v>
       </c>
       <c r="E232">
-        <v>300</v>
+        <v>453</v>
       </c>
     </row>
     <row r="233" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B233">
-        <v>84</v>
+        <v>300</v>
       </c>
       <c r="C233">
-        <v>36</v>
+        <v>1500</v>
       </c>
       <c r="D233">
-        <v>273</v>
+        <v>90</v>
       </c>
       <c r="E233">
-        <v>513</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="234" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B234">
+        <v>111</v>
+      </c>
+      <c r="C234">
+        <v>240</v>
+      </c>
+      <c r="D234">
+        <v>462</v>
+      </c>
+      <c r="E234">
         <v>300</v>
-      </c>
-      <c r="C234">
-        <v>369</v>
-      </c>
-      <c r="D234">
-        <v>186</v>
-      </c>
-      <c r="E234">
-        <v>4500</v>
       </c>
     </row>
     <row r="235" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B235">
-        <v>300</v>
+        <v>84</v>
       </c>
       <c r="C235">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="D235">
-        <v>1899</v>
+        <v>273</v>
       </c>
       <c r="E235">
-        <v>177</v>
+        <v>513</v>
       </c>
     </row>
     <row r="236" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B236">
-        <v>54</v>
+        <v>300</v>
       </c>
       <c r="C236">
-        <v>72</v>
+        <v>369</v>
       </c>
       <c r="D236">
-        <v>3000</v>
+        <v>186</v>
       </c>
       <c r="E236">
-        <v>312</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="237" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B237">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="C237">
-        <v>486</v>
+        <v>117</v>
       </c>
       <c r="D237">
-        <v>291</v>
+        <v>1899</v>
       </c>
       <c r="E237">
-        <v>1146</v>
+        <v>177</v>
       </c>
     </row>
     <row r="238" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B238">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C238">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D238">
-        <v>117</v>
+        <v>3000</v>
       </c>
       <c r="E238">
-        <v>279</v>
+        <v>312</v>
       </c>
     </row>
     <row r="239" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B239">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="C239">
-        <v>1500</v>
+        <v>486</v>
       </c>
       <c r="D239">
-        <v>3000</v>
+        <v>291</v>
       </c>
       <c r="E239">
-        <v>4500</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="240" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B240">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C240">
-        <v>1500</v>
+        <v>51</v>
       </c>
       <c r="D240">
-        <v>291</v>
+        <v>117</v>
       </c>
       <c r="E240">
-        <v>1644</v>
+        <v>279</v>
       </c>
     </row>
     <row r="241" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B241">
-        <v>27</v>
+        <v>300</v>
       </c>
       <c r="C241">
         <v>1500</v>
       </c>
       <c r="D241">
-        <v>1056</v>
+        <v>3000</v>
       </c>
       <c r="E241">
         <v>4500</v>
@@ -34114,44 +34678,44 @@
     </row>
     <row r="242" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B242">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C242">
-        <v>45</v>
+        <v>1500</v>
       </c>
       <c r="D242">
-        <v>789</v>
+        <v>291</v>
       </c>
       <c r="E242">
-        <v>327</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="243" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B243">
-        <v>300</v>
+        <v>27</v>
       </c>
       <c r="C243">
         <v>1500</v>
       </c>
       <c r="D243">
-        <v>504</v>
+        <v>1056</v>
       </c>
       <c r="E243">
-        <v>1161</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="244" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B244">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C244">
-        <v>1500</v>
+        <v>45</v>
       </c>
       <c r="D244">
-        <v>3000</v>
+        <v>789</v>
       </c>
       <c r="E244">
-        <v>4500</v>
+        <v>327</v>
       </c>
     </row>
     <row r="245" spans="2:5" x14ac:dyDescent="0.2">
@@ -34162,24 +34726,24 @@
         <v>1500</v>
       </c>
       <c r="D245">
-        <v>336</v>
+        <v>504</v>
       </c>
       <c r="E245">
-        <v>4500</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="246" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B246">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C246">
         <v>1500</v>
       </c>
       <c r="D246">
-        <v>330</v>
+        <v>3000</v>
       </c>
       <c r="E246">
-        <v>330</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="247" spans="2:5" x14ac:dyDescent="0.2">
@@ -34187,27 +34751,27 @@
         <v>300</v>
       </c>
       <c r="C247">
-        <v>78</v>
+        <v>1500</v>
       </c>
       <c r="D247">
-        <v>1020</v>
+        <v>336</v>
       </c>
       <c r="E247">
-        <v>1242</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="248" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B248">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="C248">
-        <v>36</v>
+        <v>1500</v>
       </c>
       <c r="D248">
-        <v>174</v>
+        <v>330</v>
       </c>
       <c r="E248">
-        <v>666</v>
+        <v>330</v>
       </c>
     </row>
     <row r="249" spans="2:5" x14ac:dyDescent="0.2">
@@ -34215,66 +34779,66 @@
         <v>300</v>
       </c>
       <c r="C249">
-        <v>1500</v>
+        <v>78</v>
       </c>
       <c r="D249">
-        <v>828</v>
+        <v>1020</v>
       </c>
       <c r="E249">
-        <v>1362</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="250" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B250">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="C250">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="D250">
-        <v>3000</v>
+        <v>174</v>
       </c>
       <c r="E250">
-        <v>4500</v>
+        <v>666</v>
       </c>
     </row>
     <row r="251" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B251">
-        <v>24</v>
+        <v>300</v>
       </c>
       <c r="C251">
         <v>1500</v>
       </c>
       <c r="D251">
-        <v>63</v>
+        <v>828</v>
       </c>
       <c r="E251">
-        <v>4500</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="252" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B252">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="C252">
-        <v>1287</v>
+        <v>135</v>
       </c>
       <c r="D252">
-        <v>153</v>
+        <v>3000</v>
       </c>
       <c r="E252">
-        <v>381</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="253" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B253">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C253">
-        <v>495</v>
+        <v>1500</v>
       </c>
       <c r="D253">
-        <v>3000</v>
+        <v>63</v>
       </c>
       <c r="E253">
         <v>4500</v>
@@ -34282,15 +34846,43 @@
     </row>
     <row r="254" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B254">
+        <v>33</v>
+      </c>
+      <c r="C254">
+        <v>1287</v>
+      </c>
+      <c r="D254">
+        <v>153</v>
+      </c>
+      <c r="E254">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="255" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B255">
+        <v>12</v>
+      </c>
+      <c r="C255">
+        <v>495</v>
+      </c>
+      <c r="D255">
+        <v>3000</v>
+      </c>
+      <c r="E255">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="256" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B256">
         <v>48</v>
       </c>
-      <c r="C254">
+      <c r="C256">
         <v>51</v>
       </c>
-      <c r="D254">
+      <c r="D256">
         <v>201</v>
       </c>
-      <c r="E254">
+      <c r="E256">
         <v>711</v>
       </c>
     </row>
